--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H2">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I2">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J2">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.91686566666667</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N2">
-        <v>83.750597</v>
+        <v>92.249425</v>
       </c>
       <c r="O2">
-        <v>0.7394739524872079</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P2">
-        <v>0.7394739524872082</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q2">
-        <v>1.315582294541667</v>
+        <v>5.801986585630556</v>
       </c>
       <c r="R2">
-        <v>11.840240650875</v>
+        <v>52.217879270675</v>
       </c>
       <c r="S2">
-        <v>0.07070045049248688</v>
+        <v>0.2505064901723478</v>
       </c>
       <c r="T2">
-        <v>0.0707004504924869</v>
+        <v>0.2505064901723479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H3">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I3">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J3">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.775467</v>
       </c>
       <c r="O3">
-        <v>0.1304596429603279</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P3">
-        <v>0.1304596429603279</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q3">
-        <v>0.2320979607916666</v>
+        <v>0.9292964300907777</v>
       </c>
       <c r="R3">
-        <v>2.088881647125</v>
+        <v>8.363667870816998</v>
       </c>
       <c r="S3">
-        <v>0.0124731310648075</v>
+        <v>0.04012328942784575</v>
       </c>
       <c r="T3">
-        <v>0.0124731310648075</v>
+        <v>0.04012328942784576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H4">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I4">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J4">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,22 +691,22 @@
         <v>0.131706</v>
       </c>
       <c r="O4">
-        <v>0.001162895070303561</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P4">
-        <v>0.001162895070303561</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q4">
-        <v>0.00206888175</v>
+        <v>0.008283590334</v>
       </c>
       <c r="R4">
-        <v>0.01861993575</v>
+        <v>0.07455231300599999</v>
       </c>
       <c r="S4">
-        <v>0.0001111833690279662</v>
+        <v>0.0003576521782616991</v>
       </c>
       <c r="T4">
-        <v>0.0001111833690279662</v>
+        <v>0.0003576521782616992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H5">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I5">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J5">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.804131333333333</v>
+        <v>2.297296</v>
       </c>
       <c r="N5">
-        <v>14.412394</v>
+        <v>6.891888</v>
       </c>
       <c r="O5">
-        <v>0.1272538983332014</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P5">
-        <v>0.1272538983332014</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q5">
-        <v>0.2263946890833333</v>
+        <v>0.4334622326986666</v>
       </c>
       <c r="R5">
-        <v>2.03755220175</v>
+        <v>3.901160094288</v>
       </c>
       <c r="S5">
-        <v>0.01216663265666291</v>
+        <v>0.01871515918436263</v>
       </c>
       <c r="T5">
-        <v>0.01216663265666292</v>
+        <v>0.01871515918436264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H6">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I6">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J6">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06227666666666667</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N6">
-        <v>0.18683</v>
+        <v>0.261036</v>
       </c>
       <c r="O6">
-        <v>0.001649611148959154</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P6">
-        <v>0.001649611148959154</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q6">
-        <v>0.002934787916666667</v>
+        <v>0.016417743204</v>
       </c>
       <c r="R6">
-        <v>0.02641309125</v>
+        <v>0.147759688836</v>
       </c>
       <c r="S6">
-        <v>0.0001577178627814596</v>
+        <v>0.0007088522467064589</v>
       </c>
       <c r="T6">
-        <v>0.0001577178627814597</v>
+        <v>0.0007088522467064592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05197466666666667</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H7">
-        <v>0.155924</v>
+        <v>0.566051</v>
       </c>
       <c r="I7">
-        <v>0.1054483162989619</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J7">
-        <v>0.1054483162989618</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>27.91686566666667</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N7">
-        <v>83.750597</v>
+        <v>0.106456</v>
       </c>
       <c r="O7">
-        <v>0.7394739524872079</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P7">
-        <v>0.7394739524872082</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q7">
-        <v>1.450969787403111</v>
+        <v>0.006695502806222223</v>
       </c>
       <c r="R7">
-        <v>13.058728086628</v>
+        <v>0.06025952525599999</v>
       </c>
       <c r="S7">
-        <v>0.0779762832367146</v>
+        <v>0.0002890849337845462</v>
       </c>
       <c r="T7">
-        <v>0.0779762832367146</v>
+        <v>0.0002890849337845463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0.155924</v>
       </c>
       <c r="I8">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J8">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.925155666666666</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N8">
-        <v>14.775467</v>
+        <v>92.249425</v>
       </c>
       <c r="O8">
-        <v>0.1304596429603279</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P8">
-        <v>0.1304596429603279</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q8">
-        <v>0.2559833240564444</v>
+        <v>1.598211038188889</v>
       </c>
       <c r="R8">
-        <v>2.303849916508</v>
+        <v>14.3838993437</v>
       </c>
       <c r="S8">
-        <v>0.01375674969513029</v>
+        <v>0.06900433701845446</v>
       </c>
       <c r="T8">
-        <v>0.01375674969513029</v>
+        <v>0.06900433701845447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,40 +983,40 @@
         <v>0.155924</v>
       </c>
       <c r="I9">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J9">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.043902</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N9">
-        <v>0.131706</v>
+        <v>14.775467</v>
       </c>
       <c r="O9">
-        <v>0.001162895070303561</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P9">
-        <v>0.001162895070303561</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q9">
-        <v>0.002281791816</v>
+        <v>0.2559833240564444</v>
       </c>
       <c r="R9">
-        <v>0.020536126344</v>
+        <v>2.303849916508</v>
       </c>
       <c r="S9">
-        <v>0.0001226253271958734</v>
+        <v>0.01105233235299897</v>
       </c>
       <c r="T9">
-        <v>0.0001226253271958734</v>
+        <v>0.01105233235299898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,40 +1045,40 @@
         <v>0.155924</v>
       </c>
       <c r="I10">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J10">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.804131333333333</v>
+        <v>0.043902</v>
       </c>
       <c r="N10">
-        <v>14.412394</v>
+        <v>0.131706</v>
       </c>
       <c r="O10">
-        <v>0.1272538983332014</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P10">
-        <v>0.1272538983332014</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q10">
-        <v>0.2496931246728889</v>
+        <v>0.002281791816</v>
       </c>
       <c r="R10">
-        <v>2.247238122056</v>
+        <v>0.020536126344</v>
       </c>
       <c r="S10">
-        <v>0.01341870932171535</v>
+        <v>9.851861094367322E-05</v>
       </c>
       <c r="T10">
-        <v>0.01341870932171536</v>
+        <v>9.851861094367326E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,45 +1107,45 @@
         <v>0.155924</v>
       </c>
       <c r="I11">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J11">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06227666666666667</v>
+        <v>2.297296</v>
       </c>
       <c r="N11">
-        <v>0.18683</v>
+        <v>6.891888</v>
       </c>
       <c r="O11">
-        <v>0.001649611148959154</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P11">
-        <v>0.001649611148959154</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q11">
-        <v>0.003236808991111111</v>
+        <v>0.1194011938346667</v>
       </c>
       <c r="R11">
-        <v>0.02913128092</v>
+        <v>1.074610744512</v>
       </c>
       <c r="S11">
-        <v>0.0001739487182057387</v>
+        <v>0.005155264244145067</v>
       </c>
       <c r="T11">
-        <v>0.0001739487182057388</v>
+        <v>0.005155264244145068</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1098193333333333</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H12">
-        <v>0.329458</v>
+        <v>0.155924</v>
       </c>
       <c r="I12">
-        <v>0.2228059271903194</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J12">
-        <v>0.2228059271903194</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>27.91686566666667</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N12">
-        <v>83.750597</v>
+        <v>0.261036</v>
       </c>
       <c r="O12">
-        <v>0.7394739524872079</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P12">
-        <v>0.7394739524872082</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q12">
-        <v>3.065811576269555</v>
+        <v>0.004522419696</v>
       </c>
       <c r="R12">
-        <v>27.592304186426</v>
+        <v>0.040701777264</v>
       </c>
       <c r="S12">
-        <v>0.1647591796170026</v>
+        <v>0.0001952599283729874</v>
       </c>
       <c r="T12">
-        <v>0.1647591796170026</v>
+        <v>0.0001952599283729875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1098193333333333</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H13">
-        <v>0.329458</v>
+        <v>0.155924</v>
       </c>
       <c r="I13">
-        <v>0.2228059271903194</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J13">
-        <v>0.2228059271903194</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.925155666666666</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N13">
-        <v>14.775467</v>
+        <v>0.106456</v>
       </c>
       <c r="O13">
-        <v>0.1304596429603279</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P13">
-        <v>0.1304596429603279</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q13">
-        <v>0.5408773118762221</v>
+        <v>0.001844338371555556</v>
       </c>
       <c r="R13">
-        <v>4.867895806886</v>
+        <v>0.016599045344</v>
       </c>
       <c r="S13">
-        <v>0.02906718171069389</v>
+        <v>7.963112725782939E-05</v>
       </c>
       <c r="T13">
-        <v>0.02906718171069389</v>
+        <v>7.963112725782941E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1438703333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.431611</v>
+      </c>
+      <c r="I14">
+        <v>0.236907567785344</v>
+      </c>
+      <c r="J14">
+        <v>0.236907567785344</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.1098193333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.329458</v>
-      </c>
-      <c r="I14">
-        <v>0.2228059271903194</v>
-      </c>
-      <c r="J14">
-        <v>0.2228059271903194</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.043902</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N14">
-        <v>0.131706</v>
+        <v>92.249425</v>
       </c>
       <c r="O14">
-        <v>0.001162895070303561</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P14">
-        <v>0.001162895070303561</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q14">
-        <v>0.004821288371999999</v>
+        <v>4.423985174852779</v>
       </c>
       <c r="R14">
-        <v>0.04339159534799999</v>
+        <v>39.815866573675</v>
       </c>
       <c r="S14">
-        <v>0.0002590999143640366</v>
+        <v>0.1910099208901269</v>
       </c>
       <c r="T14">
-        <v>0.0002590999143640367</v>
+        <v>0.191009920890127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1098193333333333</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H15">
-        <v>0.329458</v>
+        <v>0.431611</v>
       </c>
       <c r="I15">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J15">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.804131333333333</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N15">
-        <v>14.412394</v>
+        <v>14.775467</v>
       </c>
       <c r="O15">
-        <v>0.1272538983332014</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P15">
-        <v>0.1272538983332014</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q15">
-        <v>0.5275865002724444</v>
+        <v>0.7085837874818889</v>
       </c>
       <c r="R15">
-        <v>4.748278502451999</v>
+        <v>6.377254087337</v>
       </c>
       <c r="S15">
-        <v>0.02835292280671158</v>
+        <v>0.03059380351459839</v>
       </c>
       <c r="T15">
-        <v>0.02835292280671159</v>
+        <v>0.0305938035145984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1098193333333333</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H16">
-        <v>0.329458</v>
+        <v>0.431611</v>
       </c>
       <c r="I16">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J16">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,60 +1429,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.06227666666666667</v>
+        <v>0.043902</v>
       </c>
       <c r="N16">
-        <v>0.18683</v>
+        <v>0.131706</v>
       </c>
       <c r="O16">
-        <v>0.001649611148959154</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P16">
-        <v>0.001649611148959154</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q16">
-        <v>0.006839182015555555</v>
+        <v>0.006316195374</v>
       </c>
       <c r="R16">
-        <v>0.06155263813999999</v>
+        <v>0.056845758366</v>
       </c>
       <c r="S16">
-        <v>0.0003675431415473324</v>
+        <v>0.0002727079614941237</v>
       </c>
       <c r="T16">
-        <v>0.0003675431415473325</v>
+        <v>0.0002727079614941238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.10757</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H17">
-        <v>0.32271</v>
+        <v>0.431611</v>
       </c>
       <c r="I17">
-        <v>0.2182423882971061</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J17">
-        <v>0.2182423882971061</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.91686566666667</v>
+        <v>2.297296</v>
       </c>
       <c r="N17">
-        <v>83.750597</v>
+        <v>6.891888</v>
       </c>
       <c r="O17">
-        <v>0.7394739524872079</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P17">
-        <v>0.7394739524872082</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q17">
-        <v>3.003017239763333</v>
+        <v>0.3305127412853334</v>
       </c>
       <c r="R17">
-        <v>27.02715515787</v>
+        <v>2.974614671568</v>
       </c>
       <c r="S17">
-        <v>0.161384561474309</v>
+        <v>0.01427021340960786</v>
       </c>
       <c r="T17">
-        <v>0.1613845614743091</v>
+        <v>0.01427021340960787</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.10757</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H18">
-        <v>0.32271</v>
+        <v>0.431611</v>
       </c>
       <c r="I18">
-        <v>0.2182423882971061</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J18">
-        <v>0.2182423882971061</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>4.925155666666666</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N18">
-        <v>14.775467</v>
+        <v>0.261036</v>
       </c>
       <c r="O18">
-        <v>0.1304596429603279</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P18">
-        <v>0.1304596429603279</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q18">
-        <v>0.5297989950633333</v>
+        <v>0.012518445444</v>
       </c>
       <c r="R18">
-        <v>4.76819095557</v>
+        <v>0.112666008996</v>
       </c>
       <c r="S18">
-        <v>0.02847182405604971</v>
+        <v>0.0005404962221658852</v>
       </c>
       <c r="T18">
-        <v>0.02847182405604971</v>
+        <v>0.0005404962221658854</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.10757</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H19">
-        <v>0.32271</v>
+        <v>0.431611</v>
       </c>
       <c r="I19">
-        <v>0.2182423882971061</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J19">
-        <v>0.2182423882971061</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.043902</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N19">
-        <v>0.131706</v>
+        <v>0.106456</v>
       </c>
       <c r="O19">
-        <v>0.001162895070303561</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P19">
-        <v>0.001162895070303561</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q19">
-        <v>0.00472253814</v>
+        <v>0.005105286735111111</v>
       </c>
       <c r="R19">
-        <v>0.04250284326</v>
+        <v>0.045947580616</v>
       </c>
       <c r="S19">
-        <v>0.0002537929974819803</v>
+        <v>0.0002204257873507542</v>
       </c>
       <c r="T19">
-        <v>0.0002537929974819803</v>
+        <v>0.0002204257873507543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.10757</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H20">
-        <v>0.32271</v>
+        <v>0.128242</v>
       </c>
       <c r="I20">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J20">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.804131333333333</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N20">
-        <v>14.412394</v>
+        <v>92.249425</v>
       </c>
       <c r="O20">
-        <v>0.1272538983332014</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P20">
-        <v>0.1272538983332014</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q20">
-        <v>0.5167804075266667</v>
+        <v>1.314472306761111</v>
       </c>
       <c r="R20">
-        <v>4.65102366774</v>
+        <v>11.83025076085</v>
       </c>
       <c r="S20">
-        <v>0.027772194692355</v>
+        <v>0.05675363759216436</v>
       </c>
       <c r="T20">
-        <v>0.02777219469235501</v>
+        <v>0.05675363759216438</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.04274733333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.128242</v>
+      </c>
+      <c r="I21">
+        <v>0.07039093143577917</v>
+      </c>
+      <c r="J21">
+        <v>0.07039093143577915</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.10757</v>
-      </c>
-      <c r="H21">
-        <v>0.32271</v>
-      </c>
-      <c r="I21">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="J21">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.06227666666666667</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N21">
-        <v>0.18683</v>
+        <v>14.775467</v>
       </c>
       <c r="O21">
-        <v>0.001649611148959154</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P21">
-        <v>0.001649611148959154</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q21">
-        <v>0.006699101033333333</v>
+        <v>0.2105372710015555</v>
       </c>
       <c r="R21">
-        <v>0.06029190929999999</v>
+        <v>1.894835439014</v>
       </c>
       <c r="S21">
-        <v>0.000360015076910379</v>
+        <v>0.009090154213676496</v>
       </c>
       <c r="T21">
-        <v>0.0003600150769103791</v>
+        <v>0.009090154213676498</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1497176666666667</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H22">
-        <v>0.449153</v>
+        <v>0.128242</v>
       </c>
       <c r="I22">
-        <v>0.3037532875671969</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J22">
-        <v>0.3037532875671969</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>27.91686566666667</v>
+        <v>0.043902</v>
       </c>
       <c r="N22">
-        <v>83.750597</v>
+        <v>0.131706</v>
       </c>
       <c r="O22">
-        <v>0.7394739524872079</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P22">
-        <v>0.7394739524872082</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q22">
-        <v>4.179647988260111</v>
+        <v>0.001876693428</v>
       </c>
       <c r="R22">
-        <v>37.616831894341</v>
+        <v>0.016890240852</v>
       </c>
       <c r="S22">
-        <v>0.2246176441382985</v>
+        <v>8.102808871397951E-05</v>
       </c>
       <c r="T22">
-        <v>0.2246176441382986</v>
+        <v>8.102808871397953E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,25 +1836,25 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1497176666666667</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H23">
-        <v>0.449153</v>
+        <v>0.128242</v>
       </c>
       <c r="I23">
-        <v>0.3037532875671969</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J23">
-        <v>0.3037532875671969</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,60 +1863,60 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.925155666666666</v>
+        <v>2.297296</v>
       </c>
       <c r="N23">
-        <v>14.775467</v>
+        <v>6.891888</v>
       </c>
       <c r="O23">
-        <v>0.1304596429603279</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P23">
-        <v>0.1304596429603279</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q23">
-        <v>0.7373828143834443</v>
+        <v>0.09820327787733332</v>
       </c>
       <c r="R23">
-        <v>6.636445329450999</v>
+        <v>0.883829500896</v>
       </c>
       <c r="S23">
-        <v>0.03962754544404231</v>
+        <v>0.004240023326733868</v>
       </c>
       <c r="T23">
-        <v>0.03962754544404232</v>
+        <v>0.004240023326733869</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1497176666666667</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H24">
-        <v>0.449153</v>
+        <v>0.128242</v>
       </c>
       <c r="I24">
-        <v>0.3037532875671969</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J24">
-        <v>0.3037532875671969</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,33 +1925,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.043902</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N24">
-        <v>0.131706</v>
+        <v>0.261036</v>
       </c>
       <c r="O24">
-        <v>0.001162895070303561</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P24">
-        <v>0.001162895070303561</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q24">
-        <v>0.006572905002</v>
+        <v>0.003719530968</v>
       </c>
       <c r="R24">
-        <v>0.05915614501799999</v>
+        <v>0.033475778712</v>
       </c>
       <c r="S24">
-        <v>0.0003532332007003932</v>
+        <v>0.0001605944160899454</v>
       </c>
       <c r="T24">
-        <v>0.0003532332007003933</v>
+        <v>0.0001605944160899455</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1497176666666667</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H25">
-        <v>0.449153</v>
+        <v>0.128242</v>
       </c>
       <c r="I25">
-        <v>0.3037532875671969</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J25">
-        <v>0.3037532875671969</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>4.804131333333333</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N25">
-        <v>14.412394</v>
+        <v>0.106456</v>
       </c>
       <c r="O25">
-        <v>0.1272538983332014</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P25">
-        <v>0.1272538983332014</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q25">
-        <v>0.7192633335868889</v>
+        <v>0.001516903372444444</v>
       </c>
       <c r="R25">
-        <v>6.473370002282</v>
+        <v>0.013652130352</v>
       </c>
       <c r="S25">
-        <v>0.03865378997445176</v>
+        <v>6.549379840049355E-05</v>
       </c>
       <c r="T25">
-        <v>0.03865378997445176</v>
+        <v>6.549379840049356E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2037,45 +2037,45 @@
         <v>0.449153</v>
       </c>
       <c r="I26">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J26">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.06227666666666667</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N26">
-        <v>0.18683</v>
+        <v>92.249425</v>
       </c>
       <c r="O26">
-        <v>0.001649611148959154</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P26">
-        <v>0.001649611148959154</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q26">
-        <v>0.009323917221111111</v>
+        <v>4.603789554113889</v>
       </c>
       <c r="R26">
-        <v>0.08391525498999999</v>
+        <v>41.43410598702501</v>
       </c>
       <c r="S26">
-        <v>0.0005010748097038438</v>
+        <v>0.1987731522078056</v>
       </c>
       <c r="T26">
-        <v>0.000501074809703844</v>
+        <v>0.1987731522078056</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.02668566666666667</v>
+        <v>0.1497176666666667</v>
       </c>
       <c r="H27">
-        <v>0.080057</v>
+        <v>0.449153</v>
       </c>
       <c r="I27">
-        <v>0.05414096520064896</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J27">
-        <v>0.05414096520064896</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.91686566666667</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N27">
-        <v>83.750597</v>
+        <v>14.775467</v>
       </c>
       <c r="O27">
-        <v>0.7394739524872079</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P27">
-        <v>0.7394739524872082</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q27">
-        <v>0.7449801715587777</v>
+        <v>0.7373828143834443</v>
       </c>
       <c r="R27">
-        <v>6.704821544029</v>
+        <v>6.636445329451</v>
       </c>
       <c r="S27">
-        <v>0.04003583352839627</v>
+        <v>0.0318372298898601</v>
       </c>
       <c r="T27">
-        <v>0.04003583352839628</v>
+        <v>0.03183722988986012</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,51 +2155,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.02668566666666667</v>
+        <v>0.1497176666666667</v>
       </c>
       <c r="H28">
-        <v>0.080057</v>
+        <v>0.449153</v>
       </c>
       <c r="I28">
-        <v>0.05414096520064896</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J28">
-        <v>0.05414096520064896</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>4.925155666666666</v>
+        <v>0.043902</v>
       </c>
       <c r="N28">
-        <v>14.775467</v>
+        <v>0.131706</v>
       </c>
       <c r="O28">
-        <v>0.1304596429603279</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P28">
-        <v>0.1304596429603279</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q28">
-        <v>0.1314310624021111</v>
+        <v>0.006572905002</v>
       </c>
       <c r="R28">
-        <v>1.182879561619</v>
+        <v>0.059156145018</v>
       </c>
       <c r="S28">
-        <v>0.0070632109896042</v>
+        <v>0.0002837916527358434</v>
       </c>
       <c r="T28">
-        <v>0.007063210989604202</v>
+        <v>0.0002837916527358436</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,51 +2217,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.02668566666666667</v>
+        <v>0.1497176666666667</v>
       </c>
       <c r="H29">
-        <v>0.080057</v>
+        <v>0.449153</v>
       </c>
       <c r="I29">
-        <v>0.05414096520064896</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J29">
-        <v>0.05414096520064896</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.043902</v>
+        <v>2.297296</v>
       </c>
       <c r="N29">
-        <v>0.131706</v>
+        <v>6.891888</v>
       </c>
       <c r="O29">
-        <v>0.001162895070303561</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P29">
-        <v>0.001162895070303561</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q29">
-        <v>0.001171554138</v>
+        <v>0.3439457967626666</v>
       </c>
       <c r="R29">
-        <v>0.010543987242</v>
+        <v>3.095512170864</v>
       </c>
       <c r="S29">
-        <v>6.296026153331132E-05</v>
+        <v>0.0148501988215444</v>
       </c>
       <c r="T29">
-        <v>6.296026153331134E-05</v>
+        <v>0.01485019882154441</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,108 +2279,480 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.02668566666666667</v>
+        <v>0.1497176666666667</v>
       </c>
       <c r="H30">
-        <v>0.080057</v>
+        <v>0.449153</v>
       </c>
       <c r="I30">
-        <v>0.05414096520064896</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J30">
-        <v>0.05414096520064896</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>4.804131333333333</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N30">
-        <v>14.412394</v>
+        <v>0.261036</v>
       </c>
       <c r="O30">
-        <v>0.1272538983332014</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P30">
-        <v>0.1272538983332014</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q30">
-        <v>0.1282014473842222</v>
+        <v>0.013027233612</v>
       </c>
       <c r="R30">
-        <v>1.153813026458</v>
+        <v>0.117245102508</v>
       </c>
       <c r="S30">
-        <v>0.006889648881304777</v>
+        <v>0.0005624636528598062</v>
       </c>
       <c r="T30">
-        <v>0.006889648881304779</v>
+        <v>0.0005624636528598065</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1497176666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.449153</v>
+      </c>
+      <c r="I31">
+        <v>0.2465362207948606</v>
+      </c>
+      <c r="J31">
+        <v>0.2465362207948606</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.106456</v>
+      </c>
+      <c r="O31">
+        <v>0.0009304294894896583</v>
+      </c>
+      <c r="P31">
+        <v>0.0009304294894896586</v>
+      </c>
+      <c r="Q31">
+        <v>0.005312781307555556</v>
+      </c>
+      <c r="R31">
+        <v>0.047815031768</v>
+      </c>
+      <c r="S31">
+        <v>0.0002293845700548719</v>
+      </c>
+      <c r="T31">
+        <v>0.000229384570054872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.030291</v>
+      </c>
+      <c r="H32">
+        <v>0.090873</v>
+      </c>
+      <c r="I32">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="J32">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>30.74980833333333</v>
+      </c>
+      <c r="N32">
+        <v>92.249425</v>
+      </c>
+      <c r="O32">
+        <v>0.8062634835844341</v>
+      </c>
+      <c r="P32">
+        <v>0.8062634835844344</v>
+      </c>
+      <c r="Q32">
+        <v>0.931442444225</v>
+      </c>
+      <c r="R32">
+        <v>8.382981998025</v>
+      </c>
+      <c r="S32">
+        <v>0.04021594570353513</v>
+      </c>
+      <c r="T32">
+        <v>0.04021594570353514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.030291</v>
+      </c>
+      <c r="H33">
+        <v>0.090873</v>
+      </c>
+      <c r="I33">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="J33">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.925155666666666</v>
+      </c>
+      <c r="N33">
+        <v>14.775467</v>
+      </c>
+      <c r="O33">
+        <v>0.1291381436253597</v>
+      </c>
+      <c r="P33">
+        <v>0.1291381436253597</v>
+      </c>
+      <c r="Q33">
+        <v>0.149187890299</v>
+      </c>
+      <c r="R33">
+        <v>1.342691012691</v>
+      </c>
+      <c r="S33">
+        <v>0.006441334226380001</v>
+      </c>
+      <c r="T33">
+        <v>0.006441334226380004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.030291</v>
+      </c>
+      <c r="H34">
+        <v>0.090873</v>
+      </c>
+      <c r="I34">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="J34">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.043902</v>
+      </c>
+      <c r="N34">
+        <v>0.131706</v>
+      </c>
+      <c r="O34">
+        <v>0.00115111544997675</v>
+      </c>
+      <c r="P34">
+        <v>0.001151115449976751</v>
+      </c>
+      <c r="Q34">
+        <v>0.001329835482</v>
+      </c>
+      <c r="R34">
+        <v>0.011968519338</v>
+      </c>
+      <c r="S34">
+        <v>5.741695782743141E-05</v>
+      </c>
+      <c r="T34">
+        <v>5.741695782743144E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.030291</v>
+      </c>
+      <c r="H35">
+        <v>0.090873</v>
+      </c>
+      <c r="I35">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="J35">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.297296</v>
+      </c>
+      <c r="N35">
+        <v>6.891888</v>
+      </c>
+      <c r="O35">
+        <v>0.06023536328116688</v>
+      </c>
+      <c r="P35">
+        <v>0.06023536328116691</v>
+      </c>
+      <c r="Q35">
+        <v>0.06958739313599999</v>
+      </c>
+      <c r="R35">
+        <v>0.6262865382239999</v>
+      </c>
+      <c r="S35">
+        <v>0.00300450429477306</v>
+      </c>
+      <c r="T35">
+        <v>0.003004504294773061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.02668566666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.080057</v>
-      </c>
-      <c r="I31">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="J31">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.06227666666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.18683</v>
-      </c>
-      <c r="O31">
-        <v>0.001649611148959154</v>
-      </c>
-      <c r="P31">
-        <v>0.001649611148959154</v>
-      </c>
-      <c r="Q31">
-        <v>0.001661894367777778</v>
-      </c>
-      <c r="R31">
-        <v>0.01495704931</v>
-      </c>
-      <c r="S31">
-        <v>8.931153981040009E-05</v>
-      </c>
-      <c r="T31">
-        <v>8.931153981040013E-05</v>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.030291</v>
+      </c>
+      <c r="H36">
+        <v>0.090873</v>
+      </c>
+      <c r="I36">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="J36">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.08701199999999999</v>
+      </c>
+      <c r="N36">
+        <v>0.261036</v>
+      </c>
+      <c r="O36">
+        <v>0.002281464569572616</v>
+      </c>
+      <c r="P36">
+        <v>0.002281464569572617</v>
+      </c>
+      <c r="Q36">
+        <v>0.002635680492</v>
+      </c>
+      <c r="R36">
+        <v>0.023721124428</v>
+      </c>
+      <c r="S36">
+        <v>0.0001137981033775332</v>
+      </c>
+      <c r="T36">
+        <v>0.0001137981033775333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.030291</v>
+      </c>
+      <c r="H37">
+        <v>0.090873</v>
+      </c>
+      <c r="I37">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="J37">
+        <v>0.04987940855853433</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.106456</v>
+      </c>
+      <c r="O37">
+        <v>0.0009304294894896583</v>
+      </c>
+      <c r="P37">
+        <v>0.0009304294894896586</v>
+      </c>
+      <c r="Q37">
+        <v>0.001074886232</v>
+      </c>
+      <c r="R37">
+        <v>0.009673976087999999</v>
+      </c>
+      <c r="S37">
+        <v>4.640927264116319E-05</v>
+      </c>
+      <c r="T37">
+        <v>4.640927264116321E-05</v>
       </c>
     </row>
   </sheetData>
